--- a/data/trans_camb/IP16B08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B08-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,16</t>
+          <t>19,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>19,79</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,53</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>7,43</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 0,0</t>
+          <t>0,0; 72,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 79,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 8,2</t>
+          <t>0,0; 29,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,65</t>
+          <t>0,0; 30,3</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,16%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>24,67%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14,33%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 0,0</t>
+          <t>0,0; 269,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 420,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 8,95</t>
+          <t>0,0; 42,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,97</t>
+          <t>0,0; 43,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,79</t>
+          <t>-12,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>5,44</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,94</t>
+          <t>-43,95; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 37,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,97</t>
+          <t>-20,66; 8,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,3</t>
+          <t>0,0; 16,65</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>-12,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 269,58</t>
+          <t>-43,95; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 420,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 61,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 63,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,8</t>
+          <t>-21,27; 8,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,48</t>
+          <t>0,0; 19,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B08-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,79</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,79</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -777,12 +777,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>6,63</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,94</t>
+          <t>0,0; 54,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,02</t>
+          <t>0,0; 54,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,97</t>
+          <t>0,0; 32,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,3</t>
+          <t>0,0; 31,7</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 269,58</t>
+          <t>0,0; 119,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 420,33</t>
+          <t>0,0; 119,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,8</t>
+          <t>0,0; 47,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,48</t>
+          <t>0,0; 46,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,16</t>
+          <t>-13,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -923,22 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,53</t>
+          <t>11,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,53</t>
+          <t>11,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>6,05</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 0,0</t>
+          <t>-49,16; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,97</t>
+          <t>0,0; 55,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,73</t>
+          <t>0,0; 49,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 8,2</t>
+          <t>-24,07; 12,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,65</t>
+          <t>0,0; 25,83</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,16%</t>
+          <t>-13,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>-2,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 0,0</t>
+          <t>-49,16; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,29 +1037,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,21</t>
+          <t>0,0; 131,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,2</t>
+          <t>0,0; 99,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 8,95</t>
+          <t>-25,58; 14,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,97</t>
+          <t>0,0; 34,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>4,28</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 6,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,68</t>
+          <t>0,0; 46,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,69</t>
+          <t>0,0; 44,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 8,72</t>
+          <t>0,0; 25,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 13,05</t>
+          <t>0,0; 21,52</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,47%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 7,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,08</t>
+          <t>0,0; 87,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,09</t>
+          <t>0,0; 79,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 9,68</t>
+          <t>0,0; 34,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,54; 15,0</t>
+          <t>0,0; 27,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6,75</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6,75</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-20,48; 7,01</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 17,74</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 21,22</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 21,8</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 8,8</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 14,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-2,05%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-20,82; 7,53</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 21,57</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 26,94</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 27,91</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-8,26; 9,82</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 16,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16B08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B08-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,49</t>
+          <t>0,0; 61,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,49</t>
+          <t>0,0; 61,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,06</t>
+          <t>0,0; 31,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,7</t>
+          <t>0,0; 32,71</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 119,71</t>
+          <t>0,0; 162,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 119,71</t>
+          <t>0,0; 162,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,19</t>
+          <t>0,0; 46,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,41</t>
+          <t>0,0; 48,62</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 0,0</t>
+          <t>-64,46; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,88</t>
+          <t>0,0; 60,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,99</t>
+          <t>0,0; 49,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 12,34</t>
+          <t>-24,3; 12,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,83</t>
+          <t>0,0; 33,75</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 0,0</t>
+          <t>-64,46; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 131,1</t>
+          <t>0,0; 153,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 99,98</t>
+          <t>0,0; 99,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 14,03</t>
+          <t>-26,35; 14,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,82</t>
+          <t>0,0; 51,29</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,39</t>
+          <t>0,0; 46,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,27</t>
+          <t>0,0; 46,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,6</t>
+          <t>0,0; 21,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,52</t>
+          <t>0,0; 27,16</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 87,43</t>
+          <t>0,0; 89,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,4</t>
+          <t>0,0; 89,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,45</t>
+          <t>0,0; 27,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,43</t>
+          <t>0,0; 37,6</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 7,01</t>
+          <t>-20,28; 6,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,74</t>
+          <t>0,0; 16,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,22</t>
+          <t>0,0; 20,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,8</t>
+          <t>0,0; 22,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 8,8</t>
+          <t>-7,08; 8,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,51; 14,06</t>
+          <t>1,5; 12,56</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 7,53</t>
+          <t>-20,33; 7,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,57</t>
+          <t>0,0; 19,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,94</t>
+          <t>0,0; 26,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,91</t>
+          <t>0,0; 28,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 9,82</t>
+          <t>-7,18; 9,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,54; 16,35</t>
+          <t>1,52; 14,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16B08-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>14,6</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>14,6</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 54,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 54,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,81</t>
+          <t>0,0; 27,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,71</t>
+          <t>0,0; 32,39</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>17,09%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>17,09%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 162,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 162,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 121,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 121,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,65</t>
+          <t>0,0; 38,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,62</t>
+          <t>0,0; 47,93</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>11,59</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,59</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-13,82</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>11,59</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 0,0</t>
+          <t>0,0; 49,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 49,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,49</t>
+          <t>-51,14; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 12,46</t>
+          <t>-24,85; 12,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,75</t>
+          <t>0,0; 32,39</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-13,82%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13,11%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 0,0</t>
+          <t>0,0; 99,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 99,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 153,1</t>
+          <t>-51,14; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 99,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 14,19</t>
+          <t>-28,14; 13,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,29</t>
+          <t>0,0; 47,97</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>10,41</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10,41</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>10,41</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>10,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 44,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 52,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,84</t>
+          <t>0,0; 20,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,16</t>
+          <t>0,0; 22,71</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 81,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 109,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 89,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 89,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,94</t>
+          <t>0,0; 26,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,6</t>
+          <t>0,0; 29,77</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6,75</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6,75</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-1,98</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>3,49</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>6,75</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>6,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 6,89</t>
+          <t>0,0; 20,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,24</t>
+          <t>0,0; 20,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,9</t>
+          <t>-18,88; 6,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,22</t>
+          <t>0,0; 16,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 8,83</t>
+          <t>-5,61; 8,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,5; 12,56</t>
+          <t>1,51; 13,05</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-2,05%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>3,62%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 7,4</t>
+          <t>0,0; 26,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,41</t>
+          <t>0,0; 26,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,43</t>
+          <t>-20,34; 7,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,6</t>
+          <t>0,0; 19,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 9,86</t>
+          <t>-5,68; 9,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,52; 14,36</t>
+          <t>1,54; 15,0</t>
         </is>
       </c>
     </row>
